--- a/evaluation/results/autoencoder/split_2/test_50_50/evaluation_metrics.xlsx
+++ b/evaluation/results/autoencoder/split_2/test_50_50/evaluation_metrics.xlsx
@@ -500,34 +500,34 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.6273408239700374</v>
+        <v>0.6020599250936329</v>
       </c>
       <c r="C2">
-        <v>0.572961373390558</v>
+        <v>0.556830031282586</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>0.7285129604365621</v>
+        <v>0.7153382451440053</v>
       </c>
       <c r="F2">
-        <v>0.8702737940026075</v>
+        <v>0.8626817447495961</v>
       </c>
       <c r="G2">
-        <v>0.9721327545161742</v>
+        <v>0.970298413585855</v>
       </c>
       <c r="H2">
-        <v>0.7973670552259114</v>
+        <v>0.7967147806814515</v>
       </c>
       <c r="I2">
         <v>534</v>
       </c>
       <c r="J2">
-        <v>398</v>
+        <v>425</v>
       </c>
       <c r="K2">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -568,10 +568,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.2546816479400749</v>
+        <v>0.2041198501872659</v>
       </c>
       <c r="D2">
-        <v>0.4059701492537313</v>
+        <v>0.3390357698289269</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.572961373390558</v>
+        <v>0.556830031282586</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.7285129604365621</v>
+        <v>0.7153382451440053</v>
       </c>
       <c r="E3">
         <v>534</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.6273408239700374</v>
+        <v>0.6020599250936329</v>
       </c>
       <c r="C4">
-        <v>0.6273408239700374</v>
+        <v>0.6020599250936329</v>
       </c>
       <c r="D4">
-        <v>0.6273408239700374</v>
+        <v>0.6020599250936329</v>
       </c>
       <c r="E4">
-        <v>0.6273408239700374</v>
+        <v>0.6020599250936329</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.7864806866952789</v>
+        <v>0.778415015641293</v>
       </c>
       <c r="C5">
-        <v>0.6273408239700374</v>
+        <v>0.6020599250936329</v>
       </c>
       <c r="D5">
-        <v>0.5672415548451467</v>
+        <v>0.5271870074864662</v>
       </c>
       <c r="E5">
         <v>1068</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.786480686695279</v>
+        <v>0.778415015641293</v>
       </c>
       <c r="C6">
-        <v>0.6273408239700374</v>
+        <v>0.6020599250936329</v>
       </c>
       <c r="D6">
-        <v>0.5672415548451467</v>
+        <v>0.5271870074864661</v>
       </c>
       <c r="E6">
         <v>1068</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="C2">
-        <v>398</v>
+        <v>425</v>
       </c>
     </row>
     <row r="3" spans="1:3">
